--- a/data/trans_camb/PCS12_SP_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R2-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-15.31244590265729</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-5.281391446292815</v>
+        <v>-5.281391446292822</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-4.722282915201076</v>
@@ -664,7 +664,7 @@
         <v>-9.658250277276508</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.9234878064323715</v>
+        <v>0.9234878064323604</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.21010553740263</v>
+        <v>-10.48238056045418</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-12.39508742828358</v>
+        <v>-12.05809733313557</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.9220570472716244</v>
+        <v>-1.651441502807218</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-13.78849116939876</v>
+        <v>-13.75667415503229</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-23.20069334283035</v>
+        <v>-23.06327119609887</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-11.90952390203291</v>
+        <v>-11.95605182601706</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-9.804060160152138</v>
+        <v>-9.748357389530232</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-14.56211683612635</v>
+        <v>-14.83195989538401</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.933674708758192</v>
+        <v>-3.722842215265708</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.852276957950549</v>
+        <v>2.711064670104721</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.04262891394556109</v>
+        <v>0.7510571827232944</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.69933785077757</v>
+        <v>11.06194298184022</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.354956160120483</v>
+        <v>2.619973931371148</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-7.907173404517363</v>
+        <v>-6.885169269633218</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.8420564575014</v>
+        <v>2.002531842772428</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2733329823999364</v>
+        <v>0.282714987812005</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-4.353004712640492</v>
+        <v>-4.879805705408025</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.614297688316708</v>
+        <v>5.819995340166473</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.3155785283067126</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1088456900111244</v>
+        <v>-0.1088456900111245</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.1081134705670483</v>
@@ -769,7 +769,7 @@
         <v>-0.2211191018903742</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.02114262816790656</v>
+        <v>0.02114262816790631</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2331641406272963</v>
+        <v>-0.2423356468437098</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2796923718449363</v>
+        <v>-0.279783211629425</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.02082463736120038</v>
+        <v>-0.03328787009246986</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2707824906448543</v>
+        <v>-0.2629238719318902</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4482912983556189</v>
+        <v>-0.4413536106133377</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2262707498373224</v>
+        <v>-0.2244808450513545</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.217064938124877</v>
+        <v>-0.2107425430508732</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3182979647474079</v>
+        <v>-0.3211918171486747</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.08452883166745345</v>
+        <v>-0.0793981067887323</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.07785662358775722</v>
+        <v>0.07242719932276699</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.001188658766493831</v>
+        <v>0.01927111989800279</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.315567300771215</v>
+        <v>0.2977547292170245</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.05095029182280965</v>
+        <v>0.06009766092205381</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1762432888909909</v>
+        <v>-0.155795261205315</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04134634336687283</v>
+        <v>0.04794557989897098</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.00783511728459566</v>
+        <v>0.007243390610396769</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1097301775417191</v>
+        <v>-0.1165318060608667</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1364592298358392</v>
+        <v>0.1450814240401878</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-6.629874646646384</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.972103681853722</v>
+        <v>2.972103681853716</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.4003331181294534</v>
@@ -878,7 +878,7 @@
         <v>-4.98758674685329</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3.968699278554477</v>
+        <v>3.968699278554466</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.502623908381584</v>
+        <v>-2.523030502178179</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-13.67469740683443</v>
+        <v>-13.5081281566722</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.097085815870492</v>
+        <v>-4.432441645081855</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.53737275250715</v>
+        <v>-7.168674400362812</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-10.03129068415122</v>
+        <v>-10.51389245845585</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.7850727414064402</v>
+        <v>-1.28929757479798</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.980488069121281</v>
+        <v>-2.145992851251603</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-9.857992165646415</v>
+        <v>-9.898633492499192</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.8554422352959152</v>
+        <v>-0.7209555426328351</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.65974886288378</v>
+        <v>12.68424495624951</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9519994762002271</v>
+        <v>0.8310318500597547</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.11953760290583</v>
+        <v>10.53195952450689</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.846180672920236</v>
+        <v>7.582513085757796</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.347679922901094</v>
+        <v>4.399503654180967</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>12.71480269514357</v>
+        <v>12.24968215401726</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>8.353949357773329</v>
+        <v>8.188924608614222</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.004726281907630256</v>
+        <v>0.3573411259947794</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>9.188118352119568</v>
+        <v>8.297642080119042</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1677815864886294</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.07521473595316852</v>
+        <v>0.07521473595316838</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.009858753323536619</v>
@@ -983,7 +983,7 @@
         <v>-0.1244888212246761</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.09905766456977916</v>
+        <v>0.09905766456977888</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.05328394579803366</v>
+        <v>-0.05735201235796952</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3155072746193601</v>
+        <v>-0.3148361163109576</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.07367745957902147</v>
+        <v>-0.09986882108495877</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1733258795520658</v>
+        <v>-0.1623458585017125</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2293229782089929</v>
+        <v>-0.2399295657846942</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.01432150827637843</v>
+        <v>-0.02749314010020118</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.04712084388625202</v>
+        <v>-0.05096423345244611</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2337770289758736</v>
+        <v>-0.2331808289206561</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.02067727748239177</v>
+        <v>-0.01686529381087075</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3697047901610699</v>
+        <v>0.3615259592581324</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.02715157077507566</v>
+        <v>0.02561442611695969</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2982732650423915</v>
+        <v>0.2927560611271798</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2145629578422267</v>
+        <v>0.2106630390683351</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1175573655954862</v>
+        <v>0.1140851555621802</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.353921793994738</v>
+        <v>0.3434096368273175</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2230722088995917</v>
+        <v>0.2193121714831329</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.001955026457171742</v>
+        <v>0.0115944777404265</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.249655656933108</v>
+        <v>0.2219877550794932</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2263419837225136</v>
+        <v>0.3470045812919565</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.711263347338433</v>
+        <v>-5.715594452137196</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.962708349490577</v>
+        <v>-2.394128808902757</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-10.39507977996551</v>
+        <v>-8.933779668712901</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-19.17785455398167</v>
+        <v>-18.38637341630251</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-7.845411987452763</v>
+        <v>-8.626873461306154</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.2426821382456671</v>
+        <v>-0.09955544512195702</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-7.385741519318636</v>
+        <v>-7.55075068667721</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.612774098969261</v>
+        <v>-2.196939504243875</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.77962211670384</v>
+        <v>11.41014260895283</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.540942565550842</v>
+        <v>6.326813177865985</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.259722529314599</v>
+        <v>10.09997813422895</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.910109089963282</v>
+        <v>10.51183516340088</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.961915855732813</v>
+        <v>2.849094864058054</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>11.15872227954902</v>
+        <v>11.58642419324561</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.692991023507492</v>
+        <v>9.887364008716993</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.521023479462356</v>
+        <v>3.416415583902291</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.481782276168667</v>
+        <v>8.503908191682143</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.006407896154712056</v>
+        <v>0.008069532620246176</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1425223534332012</v>
+        <v>-0.1247046382062189</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.06497136072832689</v>
+        <v>-0.05138416309336308</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1675327379110189</v>
+        <v>-0.1463156293447135</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3154658287495234</v>
+        <v>-0.3069600672236451</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1301027117523365</v>
+        <v>-0.1390410718354581</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.00579505010858517</v>
+        <v>-0.001596312457173329</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1500013308786108</v>
+        <v>-0.15404227931154</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.05261417880604044</v>
+        <v>-0.04378853290358313</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2927915449499695</v>
+        <v>0.28262690802819</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1353227579821322</v>
+        <v>0.1576322058538009</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.233411864747732</v>
+        <v>0.2464141834471777</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1945048972986314</v>
+        <v>0.2022216881017101</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.05703377839108054</v>
+        <v>0.0528300710322667</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2225875332218858</v>
+        <v>0.2311381804247556</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2177160348878344</v>
+        <v>0.2252089798868396</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.0809463176099</v>
+        <v>0.07750754972265647</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1915483307455928</v>
+        <v>0.196687248076793</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-9.905115984282297</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-2.159930754990447</v>
+        <v>-2.159930754990436</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-2.649854731138146</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.241844890466423</v>
+        <v>-4.592060257021585</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.552383406934192</v>
+        <v>-8.589697910274857</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.225258373194983</v>
+        <v>-4.375630063159522</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-11.53239667006075</v>
+        <v>-11.68734119596138</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-14.87238599197779</v>
+        <v>-15.21146599362643</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-6.574450551769568</v>
+        <v>-7.086943118788966</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-5.94612973060428</v>
+        <v>-6.127354459986798</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-9.484682754880801</v>
+        <v>-9.805884751308183</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.826087340990738</v>
+        <v>-3.941926859348141</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.454776185414935</v>
+        <v>3.530681690596396</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.3758761570959379</v>
+        <v>-0.8580044582508186</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.381591366059986</v>
+        <v>4.104767691037391</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-1.533273246750975</v>
+        <v>-1.244095741059899</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-4.885345843983495</v>
+        <v>-5.155614687813484</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.862495509903658</v>
+        <v>2.342591742332406</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8261297299431156</v>
+        <v>0.4708216357932432</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-3.327462265012735</v>
+        <v>-3.366899542909279</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.732628865693119</v>
+        <v>2.480984864880709</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.1830982111137726</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.03992678712656453</v>
+        <v>-0.03992678712656433</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.05285761121162224</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1054817730196381</v>
+        <v>-0.09352326630676405</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.172004272969813</v>
+        <v>-0.1760859487781711</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.0847136680714892</v>
+        <v>-0.09000511611000832</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2027589433470344</v>
+        <v>-0.2069088510729322</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2574740707847518</v>
+        <v>-0.2677554502676762</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1155703170986579</v>
+        <v>-0.1228313075104392</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1148036747369462</v>
+        <v>-0.1182748984029225</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1840172233071031</v>
+        <v>-0.1898192175576655</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.07356273584017933</v>
+        <v>-0.07459376082677446</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.07596226308683905</v>
+        <v>0.07670892893768959</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.008323517207621454</v>
+        <v>-0.01834759352541061</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.09558054906687515</v>
+        <v>0.08884023687041891</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.03259291170105905</v>
+        <v>-0.02469908406227052</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.09576241315089791</v>
+        <v>-0.09770716723499878</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05512748971891221</v>
+        <v>0.04639392109958509</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01684118154306436</v>
+        <v>0.009674502147780715</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.06642698295891451</v>
+        <v>-0.06870372293015735</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.0556941919232525</v>
+        <v>0.0508629122045979</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-7.60603834696878</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.360653444992378</v>
+        <v>2.360653444992389</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.728590297184275</v>
@@ -1511,7 +1511,7 @@
         <v>-3.463569042378956</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.334484894495936</v>
+        <v>2.334484894495947</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.9685038486935693</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-9.843922639297878</v>
+        <v>-10.07214048164514</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-14.58128492215154</v>
+        <v>-13.85428190531501</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.536953163715027</v>
+        <v>-4.045545744418067</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.35941511671048</v>
+        <v>-1.570690305098345</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-8.838134184922481</v>
+        <v>-8.847813858934582</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.699476973475205</v>
+        <v>-2.212700234731258</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.274899928557653</v>
+        <v>-3.466224225771333</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-10.22215896786083</v>
+        <v>-10.51630044657911</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-2.046867603144214</v>
+        <v>-2.019210865196182</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.504997913724083</v>
+        <v>4.276787571631787</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.071785142914907</v>
+        <v>-0.8027093897901891</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9.57321800449755</v>
+        <v>9.893533206011758</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9.651999990011209</v>
+        <v>9.274620336178184</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.141860990639449</v>
+        <v>2.213146858256729</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.590552034804626</v>
+        <v>8.023342423552087</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.129441769755441</v>
+        <v>5.229941786745452</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-1.396964765380123</v>
+        <v>-1.898596734336779</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.030987328058012</v>
+        <v>6.32295808369105</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.1539178547157298</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.04777082331241831</v>
+        <v>0.04777082331241853</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.06374917298807409</v>
@@ -1616,7 +1616,7 @@
         <v>-0.0592180004881458</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03991360528123807</v>
+        <v>0.03991360528123826</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.01759988850991136</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1829579128762582</v>
+        <v>-0.1882030555619047</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2703022240178263</v>
+        <v>-0.2622132130959496</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1014677352957249</v>
+        <v>-0.07890917507573007</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.02160670131003905</v>
+        <v>-0.0251527308146111</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1436348219275808</v>
+        <v>-0.14350010407835</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.04339840383359732</v>
+        <v>-0.03630322185905846</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.05722973205234381</v>
+        <v>-0.05999594978902745</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1763163981758431</v>
+        <v>-0.1842650496124839</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.03594426810827769</v>
+        <v>-0.03528077352772193</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.09949515146540519</v>
+        <v>0.09185719140174702</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.02359979208210788</v>
+        <v>-0.01606579142908301</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2122632618809096</v>
+        <v>0.2203101089622522</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1777091239155712</v>
+        <v>0.1709080018311636</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.03804131406856696</v>
+        <v>0.0406585562088832</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1396842663411941</v>
+        <v>0.1462264588627173</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.09684387905493651</v>
+        <v>0.09961730698526125</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.02632009241399543</v>
+        <v>-0.03696370843330003</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.115034576525146</v>
+        <v>0.1196280300437827</v>
       </c>
     </row>
     <row r="34">
@@ -1734,7 +1734,7 @@
         <v>-9.122462784977758</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-8.430345246275822</v>
+        <v>-8.430345246275811</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.7475606576260649</v>
+        <v>-0.7010577746150665</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.83102069889404</v>
+        <v>-3.273069439961823</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-5.73026488689637</v>
+        <v>-5.718020078562783</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-9.076740856014052</v>
+        <v>-9.520232403322497</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-15.27039673944043</v>
+        <v>-15.37904464358937</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-13.71944844804193</v>
+        <v>-14.31440321014947</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-6.807283869653087</v>
+        <v>-6.733432685503415</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-13.05584778386658</v>
+        <v>-12.82846594496261</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-12.60488592761183</v>
+        <v>-12.69468507718953</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>12.59651977833091</v>
+        <v>12.9809358765907</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>9.484205856481301</v>
+        <v>9.854830834211544</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12.54875160611362</v>
+        <v>11.42868538696523</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-1.002365890663138</v>
+        <v>-1.396079028662341</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-7.358742525872891</v>
+        <v>-7.307983406801978</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-5.229257771933709</v>
+        <v>-5.562138176807381</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.3155194351144699</v>
+        <v>0.4796403004422753</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-5.727202489724225</v>
+        <v>-5.491984309605239</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-4.279575068464041</v>
+        <v>-4.101491063511014</v>
       </c>
     </row>
     <row r="37">
@@ -1839,7 +1839,7 @@
         <v>-0.1628328199123862</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.1504787601377339</v>
+        <v>-0.1504787601377337</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.04222988199159731</v>
+        <v>-0.03316912761246914</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1568811161164205</v>
+        <v>-0.1625720581264097</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3055201085470115</v>
+        <v>-0.3032973685200226</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1366523305315066</v>
+        <v>-0.1424167923734585</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2287503059247236</v>
+        <v>-0.2310505216347044</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2063504510327504</v>
+        <v>-0.2149562724357093</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1171949578090047</v>
+        <v>-0.1173926264223685</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2275675019475051</v>
+        <v>-0.220681153420473</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.217677068485221</v>
+        <v>-0.219774527211706</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.8399308428556583</v>
+        <v>0.8928357016699286</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.6459926432528618</v>
+        <v>0.68283696527759</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.7972919920215527</v>
+        <v>0.7619840579843057</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.01722140107170538</v>
+        <v>-0.02189931281859863</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.1147111080202871</v>
+        <v>-0.1154232754537921</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.08242127544200507</v>
+        <v>-0.08828634698995377</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.006423687891340628</v>
+        <v>0.008300003358367386</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.1053606795936895</v>
+        <v>-0.09898332500580485</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.07614915908626473</v>
+        <v>-0.07363700846453973</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-3.631003363951263</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2.793824116668731</v>
+        <v>2.793824116668725</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-2.830141349713866</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.878226881259718</v>
+        <v>-1.327720378677309</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.912370150763908</v>
+        <v>-6.151157457590122</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.3340818447205224</v>
+        <v>0.09502443468170087</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-5.428213023057637</v>
+        <v>-5.070220032323027</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-11.76604189481323</v>
+        <v>-11.60323127960335</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-6.069196479535027</v>
+        <v>-5.949329201729582</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.472916257695012</v>
+        <v>-2.565564826219889</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-8.33086654599412</v>
+        <v>-8.272464631676407</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-2.341286212566581</v>
+        <v>-2.328684068137917</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.058720564067752</v>
+        <v>3.778559390494073</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-1.127776834322957</v>
+        <v>-1.357884161133525</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.352539299855892</v>
+        <v>5.057129242704909</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-0.4650897919416901</v>
+        <v>-0.6864019947726473</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-6.984385113523482</v>
+        <v>-6.841302484090897</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-1.634051346914955</v>
+        <v>-1.502387860334434</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.9760262958378995</v>
+        <v>1.081471033156965</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-4.714681973845475</v>
+        <v>-4.8023949502243</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.242465441403884</v>
+        <v>1.024862305676502</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.08523318006845339</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.06558146334419367</v>
+        <v>0.06558146334419353</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.04961699913119349</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.0205524269673438</v>
+        <v>-0.03024879685530216</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1350226645380253</v>
+        <v>-0.1425034876270865</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.007724472393844261</v>
+        <v>0.002046766254435362</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.09300773822691549</v>
+        <v>-0.08766971825399512</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.202399467269327</v>
+        <v>-0.2016893016843753</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1040940845233285</v>
+        <v>-0.1020806958811138</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.04852579163555291</v>
+        <v>-0.05002339558865741</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.164793814037496</v>
+        <v>-0.1625624127786539</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.04611092241348232</v>
+        <v>-0.04565885030443485</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.09750134933121703</v>
+        <v>0.09112311957437388</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.0285540994480904</v>
+        <v>-0.03347337550943388</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1292913927033232</v>
+        <v>0.1215209236797231</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.00824832337107728</v>
+        <v>-0.01226621094603337</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.1242053893200178</v>
+        <v>-0.1221851374161504</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.02942405435204196</v>
+        <v>-0.02683815367891192</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.01995188291074543</v>
+        <v>0.0223196008442982</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.0972495240614515</v>
+        <v>-0.09812510805312859</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.02533097930251756</v>
+        <v>0.02107696374616951</v>
       </c>
     </row>
     <row r="46">
